--- a/Tables/Formatted/Segment Pivot.xlsx
+++ b/Tables/Formatted/Segment Pivot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Desktop\GPT Detection\Pivots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Documents\Repos\AI-Detection\Tables\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,22 +1065,22 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="6">
-        <v>1032</v>
+        <v>779</v>
       </c>
       <c r="D3" s="6">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E3" s="6">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="F3" s="6">
-        <v>462</v>
+        <v>339</v>
       </c>
       <c r="G3" s="6">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c r="H3" s="6">
-        <v>15653</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,22 +1088,22 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6">
-        <v>915</v>
+        <v>680</v>
       </c>
       <c r="D4" s="6">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="E4" s="6">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="F4" s="6">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="G4" s="6">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="H4" s="6">
-        <v>16852</v>
+        <v>13028</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,22 +1111,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>685</v>
+        <v>507</v>
       </c>
       <c r="D5" s="6">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E5" s="6">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F5" s="6">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G5" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6">
-        <v>17531</v>
+        <v>13558</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Formatted/Segment Pivot.xlsx
+++ b/Tables/Formatted/Segment Pivot.xlsx
@@ -21,25 +21,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Less than 10% chance of being real</t>
+    <t>Segment</t>
   </si>
   <si>
-    <t>Less than 20% chance of being real</t>
+    <t>Greater than 90% chance of being AI generated</t>
   </si>
   <si>
-    <t>Less than 30% chance of being real</t>
+    <t>Greater than 80% chance of being AI generated</t>
   </si>
   <si>
-    <t>Less than 40% chance of being real</t>
+    <t>Greater than 70% chance of being AI generated</t>
   </si>
   <si>
-    <t>Less than 50% chance of being real</t>
+    <t>Greater than 60% chance of being AI generated</t>
   </si>
   <si>
-    <t>Over 50% chance of being real</t>
+    <t>Greater than 50% chance of being AI generated</t>
   </si>
   <si>
-    <t>Segment</t>
+    <t>Less than 50% chance of being AI generated</t>
   </si>
 </sst>
 </file>
@@ -749,12 +749,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" name="Segment" dataDxfId="6"/>
-    <tableColumn id="2" name="Less than 10% chance of being real" dataDxfId="5"/>
-    <tableColumn id="3" name="Less than 20% chance of being real" dataDxfId="4"/>
-    <tableColumn id="4" name="Less than 30% chance of being real" dataDxfId="3"/>
-    <tableColumn id="5" name="Less than 40% chance of being real" dataDxfId="2"/>
-    <tableColumn id="6" name="Less than 50% chance of being real" dataDxfId="1"/>
-    <tableColumn id="7" name="Over 50% chance of being real" dataDxfId="0"/>
+    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="5"/>
+    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="4"/>
+    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="3"/>
+    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="2"/>
+    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="1"/>
+    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1026,7 +1026,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,27 +1037,27 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Tables/Formatted/Segment Pivot.xlsx
+++ b/Tables/Formatted/Segment Pivot.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="segment-pivot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -182,22 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +377,50 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3D0EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC693"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FE59F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0AAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,6 +535,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -538,7 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -546,16 +599,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,6 +692,27 @@
   <dxfs count="10">
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -616,6 +723,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA3D0EF"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -630,6 +743,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -644,6 +763,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD8C7E7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -658,6 +783,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0AAAA"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -672,6 +803,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9FE59F"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -686,20 +823,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC693"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -729,11 +863,17 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD8C7E7"/>
+      <color rgb="FFF0AAAA"/>
+      <color rgb="FF9FE59F"/>
+      <color rgb="FFA3D0EF"/>
+      <color rgb="FFFFC693"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,17 +886,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="9" tableBorderDxfId="8">
   <tableColumns count="7">
-    <tableColumn id="1" name="Segment" dataDxfId="6"/>
-    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="5"/>
-    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="4"/>
-    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="3"/>
-    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="2"/>
-    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="1"/>
-    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="0"/>
+    <tableColumn id="1" name="Segment" dataDxfId="0"/>
+    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="1"/>
+    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="6"/>
+    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="5"/>
+    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="4"/>
+    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="3"/>
+    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1026,7 +1166,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,94 +1178,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="16">
         <v>0.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>779</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>426</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>356</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>339</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>390</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="13">
         <v>12136</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="16">
         <v>0.5</v>
       </c>
       <c r="C4" s="6">
         <v>680</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>220</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>165</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>165</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="12">
         <v>168</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="14">
         <v>13028</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>507</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>120</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>77</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>84</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>80</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="13">
         <v>13558</v>
       </c>
     </row>

--- a/Tables/Formatted/Segment Pivot.xlsx
+++ b/Tables/Formatted/Segment Pivot.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Documents\Repos\AI-Detection\Tables\Formatted\"/>
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="segment-pivot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Segment</t>
-  </si>
   <si>
     <t>Greater than 90% chance of being AI generated</t>
   </si>
@@ -39,13 +36,16 @@
     <t>Greater than 50% chance of being AI generated</t>
   </si>
   <si>
-    <t>Less than 50% chance of being AI generated</t>
+    <t>Greater than 50% chance of being real</t>
+  </si>
+  <si>
+    <t>Percentage of abstract words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +419,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3EFC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C7C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBCDE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -546,8 +582,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -590,8 +668,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -638,14 +717,92 @@
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="42" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="42" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="42" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -685,193 +842,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.749992370372631"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA3D0EF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD8C7E7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0AAAA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9FE59F"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC693"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FFDBCDE9"/>
+      <color rgb="FFF5C7C7"/>
+      <color rgb="FFC3EFC3"/>
+      <color rgb="FFFFDAB9"/>
+      <color rgb="FFC7E2F5"/>
       <color rgb="FFD8C7E7"/>
       <color rgb="FFF0AAAA"/>
       <color rgb="FF9FE59F"/>
       <color rgb="FFA3D0EF"/>
-      <color rgb="FFFFC693"/>
     </mruColors>
   </colors>
   <extLst>
@@ -883,21 +872,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="9" tableBorderDxfId="8">
-  <tableColumns count="7">
-    <tableColumn id="1" name="Segment" dataDxfId="0"/>
-    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="1"/>
-    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="6"/>
-    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="5"/>
-    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="4"/>
-    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="3"/>
-    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,117 +1137,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
+    <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24">
         <v>0.25</v>
       </c>
       <c r="C3" s="5">
         <v>779</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="26">
+        <v>5.39997227228615E-2</v>
+      </c>
+      <c r="E3" s="3">
         <v>426</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="29">
+        <v>2.9530015250242618E-2</v>
+      </c>
+      <c r="G3" s="7">
         <v>356</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="32">
+        <v>2.467766532649383E-2</v>
+      </c>
+      <c r="I3" s="9">
         <v>339</v>
       </c>
-      <c r="G3" s="11">
+      <c r="J3" s="35">
+        <v>2.3499237487869126E-2</v>
+      </c>
+      <c r="K3" s="11">
         <v>390</v>
       </c>
-      <c r="H3" s="13">
+      <c r="L3" s="38">
+        <v>2.7034521003743241E-2</v>
+      </c>
+      <c r="M3" s="13">
         <v>12136</v>
       </c>
+      <c r="N3" s="41">
+        <v>0.84125883820878966</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
         <v>0.5</v>
       </c>
       <c r="C4" s="6">
         <v>680</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="27">
+        <v>4.7137113544988216E-2</v>
+      </c>
+      <c r="E4" s="4">
         <v>220</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="30">
+        <v>1.5250242617496187E-2</v>
+      </c>
+      <c r="G4" s="8">
         <v>165</v>
       </c>
-      <c r="F4" s="10">
+      <c r="H4" s="33">
+        <v>1.1437681963122141E-2</v>
+      </c>
+      <c r="I4" s="10">
         <v>165</v>
       </c>
-      <c r="G4" s="12">
+      <c r="J4" s="36">
+        <v>1.1437681963122141E-2</v>
+      </c>
+      <c r="K4" s="12">
         <v>168</v>
       </c>
-      <c r="H4" s="14">
+      <c r="L4" s="39">
+        <v>1.1645639816997089E-2</v>
+      </c>
+      <c r="M4" s="14">
         <v>13028</v>
       </c>
+      <c r="N4" s="42">
+        <v>0.90309164009427423</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+    <row r="5" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <v>507</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="28">
+        <v>3.5144877304866214E-2</v>
+      </c>
+      <c r="E5" s="17">
         <v>120</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="31">
+        <v>8.318314154997921E-3</v>
+      </c>
+      <c r="G5" s="18">
         <v>77</v>
       </c>
-      <c r="F5" s="9">
+      <c r="H5" s="34">
+        <v>5.3375849161236659E-3</v>
+      </c>
+      <c r="I5" s="19">
         <v>84</v>
       </c>
-      <c r="G5" s="11">
+      <c r="J5" s="37">
+        <v>5.8228199084985445E-3</v>
+      </c>
+      <c r="K5" s="20">
         <v>80</v>
       </c>
-      <c r="H5" s="13">
+      <c r="L5" s="40">
+        <v>5.545542769998614E-3</v>
+      </c>
+      <c r="M5" s="21">
         <v>13558</v>
       </c>
+      <c r="N5" s="43">
+        <v>0.93983086094551505</v>
+      </c>
     </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Tables/Formatted/Segment Pivot.xlsx
+++ b/Tables/Formatted/Segment Pivot.xlsx
@@ -21,32 +21,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Greater than 90% chance of being AI generated</t>
+    <t>AI Generated Possibility</t>
   </si>
   <si>
-    <t>Greater than 80% chance of being AI generated</t>
+    <t>&lt; 50%</t>
   </si>
   <si>
-    <t>Greater than 70% chance of being AI generated</t>
+    <t>50 - 60%</t>
   </si>
   <si>
-    <t>Greater than 60% chance of being AI generated</t>
+    <t>60 - 70%</t>
   </si>
   <si>
-    <t>Greater than 50% chance of being AI generated</t>
+    <t>70 - 80%</t>
   </si>
   <si>
-    <t>Greater than 50% chance of being real</t>
+    <t>80 - 90%</t>
   </si>
   <si>
-    <t>Percentage of abstract words</t>
+    <t>&gt; 90%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="46">
     <fill>
@@ -456,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -572,11 +588,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -584,7 +620,42 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -592,34 +663,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -670,7 +721,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -678,127 +729,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="42" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="40" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="42" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="42" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="42" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="43" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="43" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="43" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="44" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="44" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="44" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="45" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="45" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="45" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="39" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,181 +1116,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N6"/>
+  <dimension ref="B3:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="38.7109375" style="2" customWidth="1"/>
+    <col min="6" max="14" width="13.7109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="3" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12136</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13028</v>
+      </c>
+      <c r="E4" s="6">
+        <v>13558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7">
+        <v>0.84125883820878966</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.90309164009427423</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.93983086094551505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>390</v>
+      </c>
+      <c r="D6" s="8">
+        <v>168</v>
+      </c>
+      <c r="E6" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9">
+        <v>2.7034521003743241E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.1645639816997089E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.545542769998614E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>339</v>
+      </c>
+      <c r="D8" s="10">
+        <v>165</v>
+      </c>
+      <c r="E8" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="11">
+        <v>2.3499237487869126E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.1437681963122141E-2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.8228199084985445E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>356</v>
+      </c>
+      <c r="D10" s="12">
+        <v>165</v>
+      </c>
+      <c r="E10" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="13">
+        <v>2.467766532649383E-2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1.1437681963122141E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5.3375849161236659E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>426</v>
+      </c>
+      <c r="D12" s="14">
+        <v>220</v>
+      </c>
+      <c r="E12" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
+        <v>2.9530015250242618E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.5250242617496187E-2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>8.318314154997921E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="23"/>
+      <c r="C14" s="16">
+        <v>779</v>
+      </c>
+      <c r="D14" s="16">
+        <v>680</v>
+      </c>
+      <c r="E14" s="16">
+        <v>507</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="5">
-        <v>779</v>
-      </c>
-      <c r="D3" s="26">
+    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="17">
         <v>5.39997227228615E-2</v>
       </c>
-      <c r="E3" s="3">
-        <v>426</v>
-      </c>
-      <c r="F3" s="29">
-        <v>2.9530015250242618E-2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>356</v>
-      </c>
-      <c r="H3" s="32">
-        <v>2.467766532649383E-2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>339</v>
-      </c>
-      <c r="J3" s="35">
-        <v>2.3499237487869126E-2</v>
-      </c>
-      <c r="K3" s="11">
-        <v>390</v>
-      </c>
-      <c r="L3" s="38">
-        <v>2.7034521003743241E-2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>12136</v>
-      </c>
-      <c r="N3" s="41">
-        <v>0.84125883820878966</v>
+      <c r="D15" s="17">
+        <v>4.7137113544988216E-2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>3.5144877304866214E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>680</v>
-      </c>
-      <c r="D4" s="27">
-        <v>4.7137113544988216E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>220</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1.5250242617496187E-2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>165</v>
-      </c>
-      <c r="H4" s="33">
-        <v>1.1437681963122141E-2</v>
-      </c>
-      <c r="I4" s="10">
-        <v>165</v>
-      </c>
-      <c r="J4" s="36">
-        <v>1.1437681963122141E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>168</v>
-      </c>
-      <c r="L4" s="39">
-        <v>1.1645639816997089E-2</v>
-      </c>
-      <c r="M4" s="14">
-        <v>13028</v>
-      </c>
-      <c r="N4" s="42">
-        <v>0.90309164009427423</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>507</v>
-      </c>
-      <c r="D5" s="28">
-        <v>3.5144877304866214E-2</v>
-      </c>
-      <c r="E5" s="17">
-        <v>120</v>
-      </c>
-      <c r="F5" s="31">
-        <v>8.318314154997921E-3</v>
-      </c>
-      <c r="G5" s="18">
-        <v>77</v>
-      </c>
-      <c r="H5" s="34">
-        <v>5.3375849161236659E-3</v>
-      </c>
-      <c r="I5" s="19">
-        <v>84</v>
-      </c>
-      <c r="J5" s="37">
-        <v>5.8228199084985445E-3</v>
-      </c>
-      <c r="K5" s="20">
-        <v>80</v>
-      </c>
-      <c r="L5" s="40">
-        <v>5.545542769998614E-3</v>
-      </c>
-      <c r="M5" s="21">
-        <v>13558</v>
-      </c>
-      <c r="N5" s="43">
-        <v>0.93983086094551505</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
